--- a/data/georgia_census/qvemo-qartli/tetriwyaro/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/tetriwyaro/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322E8D8-5BEA-4E79-A25B-EA3E6C967273}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610899C1-AB0C-4DFA-8DCF-958A0275C93C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E778666-C5E4-408E-B01A-FC98B5CDE302}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7E0EB6-E00A-4AA1-979E-C5EA42648DDD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267E5931-8D5B-42D6-9C1A-C471EE2B151F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{521C132F-0104-4D72-BBC9-88E1982D7B68}"/>
 </file>